--- a/data/trans_orig/P1409-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{563BC0BB-B4A0-442F-BAF5-B4E2ED2E7241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27F303CE-03CB-418B-88FD-2798B1718C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE44FF4A-4204-4AE4-9DAC-373CBA96222B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3FCF8808-C22C-424C-A4D9-6BECA3CBD2FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="349">
   <si>
     <t>Población con diagnóstico de asma en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -76,1021 +76,1015 @@
     <t>2,95%</t>
   </si>
   <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
   </si>
   <si>
     <t>96,27%</t>
   </si>
   <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFF5B84-1259-402B-9C5B-3EC36F2374EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C094E9E-B645-4713-AA2F-679703CB12E2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2106,13 +2100,13 @@
         <v>10528</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2121,10 +2115,10 @@
         <v>16892</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>75</v>
@@ -2157,13 +2151,13 @@
         <v>603736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>1073</v>
@@ -2172,13 +2166,13 @@
         <v>1211988</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,7 +2401,7 @@
         <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -2416,13 +2410,13 @@
         <v>20759</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -2434,10 +2428,10 @@
         <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,13 +2446,13 @@
         <v>541935</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>673</v>
@@ -2467,13 +2461,13 @@
         <v>721033</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="M20" s="7">
         <v>1161</v>
@@ -2485,10 +2479,10 @@
         <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2550,13 @@
         <v>65421</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>88</v>
@@ -2571,13 +2565,13 @@
         <v>96180</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>151</v>
@@ -2586,13 +2580,13 @@
         <v>161602</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,13 +2601,13 @@
         <v>3361358</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>3207</v>
@@ -2622,13 +2616,13 @@
         <v>3457736</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>6353</v>
@@ -2637,13 +2631,13 @@
         <v>6819092</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,7 +2693,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2721,7 +2715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FADF36E-5F65-4074-BEB8-504D1F98C400}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C2CA1F-8BCC-4D45-A920-9E178104A66F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2738,7 +2732,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2845,13 +2839,13 @@
         <v>16439</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -2860,13 +2854,13 @@
         <v>21351</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -2875,13 +2869,13 @@
         <v>37789</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2890,13 @@
         <v>403024</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>382</v>
@@ -2911,13 +2905,13 @@
         <v>374404</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M5" s="7">
         <v>759</v>
@@ -2926,13 +2920,13 @@
         <v>777429</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +2994,13 @@
         <v>16015</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -3015,13 +3009,13 @@
         <v>21306</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -3030,13 +3024,13 @@
         <v>37322</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3045,13 @@
         <v>574481</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H8" s="7">
         <v>557</v>
@@ -3066,13 +3060,13 @@
         <v>542238</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M8" s="7">
         <v>1108</v>
@@ -3087,7 +3081,7 @@
         <v>165</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,10 +3167,10 @@
         <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -3185,13 +3179,13 @@
         <v>35335</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,10 +3203,10 @@
         <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H11" s="7">
         <v>642</v>
@@ -3221,13 +3215,13 @@
         <v>638516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="M11" s="7">
         <v>1269</v>
@@ -3236,13 +3230,13 @@
         <v>1295148</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3304,13 @@
         <v>8188</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3325,13 +3319,13 @@
         <v>21626</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -3340,13 +3334,13 @@
         <v>29814</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3355,13 @@
         <v>637860</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>582</v>
@@ -3376,7 +3370,7 @@
         <v>627451</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>193</v>
@@ -3388,7 +3382,7 @@
         <v>1157</v>
       </c>
       <c r="N14" s="7">
-        <v>1265311</v>
+        <v>1265312</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>195</v>
@@ -3439,7 +3433,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -3495,13 +3489,13 @@
         <v>31862</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3510,13 @@
         <v>465651</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>416</v>
@@ -3531,13 +3525,13 @@
         <v>477253</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>830</v>
@@ -3546,13 +3540,13 @@
         <v>942905</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3614,13 @@
         <v>20812</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -3635,13 +3629,13 @@
         <v>34409</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -3650,13 +3644,13 @@
         <v>55221</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3665,13 @@
         <v>570516</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="H20" s="7">
         <v>627</v>
@@ -3686,13 +3680,13 @@
         <v>743522</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>1230</v>
@@ -3701,13 +3695,13 @@
         <v>1314038</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3769,13 @@
         <v>86185</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>51</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -3790,13 +3784,13 @@
         <v>141158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>230</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M22" s="7">
         <v>216</v>
@@ -3805,13 +3799,13 @@
         <v>227343</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3820,13 @@
         <v>3308165</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H23" s="7">
         <v>3206</v>
@@ -3841,13 +3835,13 @@
         <v>3403384</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M23" s="7">
         <v>6353</v>
@@ -3918,7 +3912,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3940,7 +3934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08286F7-25AA-427C-AC96-759D1FE3B14D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E6E11A-7A6D-4895-BAB9-E47C37420902}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4067,10 +4061,10 @@
         <v>245</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4079,7 +4073,7 @@
         <v>8223</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>248</v>
@@ -4121,7 +4115,7 @@
         <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="H5" s="7">
         <v>202</v>
@@ -4130,7 +4124,7 @@
         <v>346734</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>256</v>
@@ -4237,10 +4231,10 @@
         <v>264</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -4249,13 +4243,13 @@
         <v>63562</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4264,13 @@
         <v>398848</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H8" s="7">
         <v>439</v>
@@ -4285,13 +4279,13 @@
         <v>464563</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="M8" s="7">
         <v>721</v>
@@ -4300,13 +4294,13 @@
         <v>863411</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,13 +4368,13 @@
         <v>22076</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4389,13 +4383,13 @@
         <v>27814</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -4404,13 +4398,13 @@
         <v>49890</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4419,13 @@
         <v>533860</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>289</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>806</v>
@@ -4440,13 +4434,13 @@
         <v>554944</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>286</v>
       </c>
       <c r="M11" s="7">
         <v>1331</v>
@@ -4455,13 +4449,13 @@
         <v>1088804</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4523,13 @@
         <v>20925</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>140</v>
       </c>
       <c r="H13" s="7">
         <v>63</v>
@@ -4544,13 +4538,13 @@
         <v>41565</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -4559,13 +4553,13 @@
         <v>62490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4574,13 @@
         <v>703065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>1076</v>
@@ -4595,13 +4589,13 @@
         <v>704812</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>1721</v>
@@ -4610,13 +4604,13 @@
         <v>1407877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4678,13 @@
         <v>16404</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -4699,13 +4693,13 @@
         <v>27626</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>168</v>
+        <v>307</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -4714,13 +4708,13 @@
         <v>44030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4729,13 @@
         <v>581676</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>165</v>
+        <v>311</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>953</v>
@@ -4750,13 +4744,13 @@
         <v>565092</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>175</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>1596</v>
@@ -4765,13 +4759,13 @@
         <v>1146768</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4833,13 @@
         <v>21091</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>318</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H19" s="7">
         <v>94</v>
@@ -4854,13 +4848,13 @@
         <v>50311</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -4869,13 +4863,13 @@
         <v>71402</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4884,13 @@
         <v>675886</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>328</v>
       </c>
       <c r="H20" s="7">
         <v>1611</v>
@@ -4905,13 +4899,13 @@
         <v>974668</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M20" s="7">
         <v>2605</v>
@@ -4920,13 +4914,13 @@
         <v>1650554</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +4988,13 @@
         <v>129993</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>339</v>
+        <v>54</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="H22" s="7">
         <v>267</v>
@@ -5009,13 +5003,13 @@
         <v>189553</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M22" s="7">
         <v>386</v>
@@ -5024,13 +5018,13 @@
         <v>319546</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>54</v>
+        <v>340</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5039,13 @@
         <v>3251065</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>345</v>
+        <v>62</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H23" s="7">
         <v>5087</v>
@@ -5060,13 +5054,13 @@
         <v>3610813</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>8340</v>
@@ -5075,13 +5069,13 @@
         <v>6861878</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>62</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,7 +5131,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1409-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27F303CE-03CB-418B-88FD-2798B1718C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D60B34DB-1789-4EF8-8472-853936A6B4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3FCF8808-C22C-424C-A4D9-6BECA3CBD2FC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB5A3016-3D77-4A07-B61B-E6A8CEB59A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="345">
   <si>
     <t>Población con diagnóstico de asma en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -79,991 +79,979 @@
     <t>1,69%</t>
   </si>
   <si>
-    <t>4,87%</t>
+    <t>4,68%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>97,71%</t>
   </si>
   <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
   </si>
   <si>
     <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
   </si>
   <si>
     <t>95,19%</t>
@@ -1496,7 +1484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C094E9E-B645-4713-AA2F-679703CB12E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7083FFB-07F6-44AB-A29B-6826EFBC0469}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2398,10 +2386,10 @@
         <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -2413,10 +2401,10 @@
         <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -2428,10 +2416,10 @@
         <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2434,13 @@
         <v>541935</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="H20" s="7">
         <v>673</v>
@@ -2461,13 +2449,13 @@
         <v>721033</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>1161</v>
@@ -2479,10 +2467,10 @@
         <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2538,13 @@
         <v>65421</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="H22" s="7">
         <v>88</v>
@@ -2565,13 +2553,13 @@
         <v>96180</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>151</v>
@@ -2580,13 +2568,13 @@
         <v>161602</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2589,13 @@
         <v>3361358</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>3207</v>
@@ -2616,13 +2604,13 @@
         <v>3457736</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>6353</v>
@@ -2631,13 +2619,13 @@
         <v>6819092</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,7 +2681,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2715,7 +2703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C2CA1F-8BCC-4D45-A920-9E178104A66F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDB8779-748C-4CD2-A6B6-C654F3BC6483}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2732,7 +2720,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2839,13 +2827,13 @@
         <v>16439</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -2854,13 +2842,13 @@
         <v>21351</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -2869,10 +2857,10 @@
         <v>37789</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>142</v>
@@ -2911,7 +2899,7 @@
         <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
         <v>759</v>
@@ -2920,13 +2908,13 @@
         <v>777429</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2982,13 @@
         <v>16015</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -3009,13 +2997,13 @@
         <v>21306</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -3024,13 +3012,13 @@
         <v>37322</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,13 +3033,13 @@
         <v>574481</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>557</v>
@@ -3060,13 +3048,13 @@
         <v>542238</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="M8" s="7">
         <v>1108</v>
@@ -3075,13 +3063,13 @@
         <v>1116718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,10 +3140,10 @@
         <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -3164,13 +3152,13 @@
         <v>22870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -3179,13 +3167,13 @@
         <v>35335</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,10 +3191,10 @@
         <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>642</v>
@@ -3215,13 +3203,13 @@
         <v>638516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1269</v>
@@ -3230,13 +3218,13 @@
         <v>1295148</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3292,13 @@
         <v>8188</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3319,13 +3307,13 @@
         <v>21626</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -3334,13 +3322,13 @@
         <v>29814</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3343,13 @@
         <v>637860</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>582</v>
@@ -3370,28 +3358,28 @@
         <v>627451</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>1157</v>
       </c>
       <c r="N14" s="7">
-        <v>1265312</v>
+        <v>1265311</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,7 +3421,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -3459,13 +3447,13 @@
         <v>12267</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -3474,13 +3462,13 @@
         <v>19596</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -3489,13 +3477,13 @@
         <v>31862</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3498,13 @@
         <v>465651</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>416</v>
@@ -3525,13 +3513,13 @@
         <v>477253</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="M17" s="7">
         <v>830</v>
@@ -3540,13 +3528,13 @@
         <v>942905</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3602,13 @@
         <v>20812</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -3629,13 +3617,13 @@
         <v>34409</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -3644,13 +3632,13 @@
         <v>55221</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3653,13 @@
         <v>570516</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="H20" s="7">
         <v>627</v>
@@ -3680,13 +3668,13 @@
         <v>743522</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M20" s="7">
         <v>1230</v>
@@ -3695,13 +3683,13 @@
         <v>1314038</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3757,13 @@
         <v>86185</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -3784,13 +3772,13 @@
         <v>141158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>216</v>
@@ -3799,13 +3787,13 @@
         <v>227343</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3808,13 @@
         <v>3308165</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H23" s="7">
         <v>3206</v>
@@ -3835,13 +3823,13 @@
         <v>3403384</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="M23" s="7">
         <v>6353</v>
@@ -3850,13 +3838,13 @@
         <v>6711549</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,7 +3900,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3934,7 +3922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E6E11A-7A6D-4895-BAB9-E47C37420902}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD91C1D-F5D6-45F0-9246-6F81E77F2106}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3951,7 +3939,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4058,13 +4046,13 @@
         <v>19949</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>246</v>
+        <v>34</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4073,13 +4061,13 @@
         <v>8223</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4088,13 +4076,13 @@
         <v>28172</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4097,13 @@
         <v>357730</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>44</v>
       </c>
       <c r="H5" s="7">
         <v>202</v>
@@ -4124,13 +4112,13 @@
         <v>346734</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>83</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>366</v>
@@ -4139,13 +4127,13 @@
         <v>704464</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4201,13 @@
         <v>29548</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4228,13 +4216,13 @@
         <v>34014</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>231</v>
+        <v>93</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -4243,13 +4231,13 @@
         <v>63562</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4252,13 @@
         <v>398848</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>439</v>
@@ -4279,13 +4267,13 @@
         <v>464563</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>240</v>
+        <v>101</v>
       </c>
       <c r="M8" s="7">
         <v>721</v>
@@ -4294,13 +4282,13 @@
         <v>863411</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,13 +4356,13 @@
         <v>22076</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4383,13 +4371,13 @@
         <v>27814</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -4398,13 +4386,13 @@
         <v>49890</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4407,13 @@
         <v>533860</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>806</v>
@@ -4434,13 +4422,13 @@
         <v>554944</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>1331</v>
@@ -4449,13 +4437,13 @@
         <v>1088804</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4511,13 @@
         <v>20925</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>63</v>
@@ -4538,13 +4526,13 @@
         <v>41565</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -4553,13 +4541,13 @@
         <v>62490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4562,13 @@
         <v>703065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>1076</v>
@@ -4589,13 +4577,13 @@
         <v>704812</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>1721</v>
@@ -4604,13 +4592,13 @@
         <v>1407877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,13 +4666,13 @@
         <v>16404</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
+        <v>301</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -4693,13 +4681,13 @@
         <v>27626</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>307</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -4708,13 +4696,13 @@
         <v>44030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,13 +4717,13 @@
         <v>581676</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>953</v>
@@ -4744,13 +4732,13 @@
         <v>565092</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>1596</v>
@@ -4759,13 +4747,13 @@
         <v>1146768</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,13 +4821,13 @@
         <v>21091</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>318</v>
+        <v>165</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>94</v>
@@ -4848,13 +4836,13 @@
         <v>50311</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -4863,13 +4851,13 @@
         <v>71402</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,13 +4872,13 @@
         <v>675886</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>328</v>
+        <v>173</v>
       </c>
       <c r="H20" s="7">
         <v>1611</v>
@@ -4899,13 +4887,13 @@
         <v>974668</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
         <v>2605</v>
@@ -4914,13 +4902,13 @@
         <v>1650554</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +4976,13 @@
         <v>129993</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>54</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H22" s="7">
         <v>267</v>
@@ -5003,13 +4991,13 @@
         <v>189553</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M22" s="7">
         <v>386</v>
@@ -5018,13 +5006,13 @@
         <v>319546</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5027,13 @@
         <v>3251065</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>62</v>
+        <v>337</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H23" s="7">
         <v>5087</v>
@@ -5054,13 +5042,13 @@
         <v>3610813</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
         <v>8340</v>
@@ -5069,13 +5057,13 @@
         <v>6861878</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,7 +5119,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1409-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D60B34DB-1789-4EF8-8472-853936A6B4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18830A00-EC40-4C2E-B577-97637FBDD8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB5A3016-3D77-4A07-B61B-E6A8CEB59A3B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{52B14493-83B0-49B4-ACA4-C0DC7F85B3F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="351">
   <si>
     <t>Población con diagnóstico de asma en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -70,1009 +70,1027 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>1,58%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>94,82%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7083FFB-07F6-44AB-A29B-6826EFBC0469}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A26D51F-8970-4159-B9A9-E9E4CD7A66DD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2088,13 +2106,13 @@
         <v>10528</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2103,10 +2121,10 @@
         <v>16892</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>75</v>
@@ -2139,13 +2157,13 @@
         <v>603736</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>1073</v>
@@ -2154,13 +2172,13 @@
         <v>1211988</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,10 +2404,10 @@
         <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -2398,13 +2416,13 @@
         <v>20759</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -2416,10 +2434,10 @@
         <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2452,13 @@
         <v>541935</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>673</v>
@@ -2449,13 +2467,13 @@
         <v>721033</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>1161</v>
@@ -2467,10 +2485,10 @@
         <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2556,13 @@
         <v>65421</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>88</v>
@@ -2553,13 +2571,13 @@
         <v>96180</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>151</v>
@@ -2568,13 +2586,13 @@
         <v>161602</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2607,13 @@
         <v>3361358</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>3207</v>
@@ -2604,13 +2622,13 @@
         <v>3457736</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>6353</v>
@@ -2619,13 +2637,13 @@
         <v>6819092</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,7 +2699,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2703,7 +2721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDB8779-748C-4CD2-A6B6-C654F3BC6483}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD254220-DCE2-4140-A310-8757C0EECF79}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2720,7 +2738,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2827,13 +2845,13 @@
         <v>16439</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -2842,13 +2860,13 @@
         <v>21351</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -2857,13 +2875,13 @@
         <v>37789</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2896,13 @@
         <v>403024</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H5" s="7">
         <v>382</v>
@@ -2893,13 +2911,13 @@
         <v>374404</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="M5" s="7">
         <v>759</v>
@@ -2908,13 +2926,13 @@
         <v>777429</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +3000,13 @@
         <v>16015</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -2997,13 +3015,13 @@
         <v>21306</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -3012,13 +3030,13 @@
         <v>37322</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3051,13 @@
         <v>574481</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7">
         <v>557</v>
@@ -3048,10 +3066,10 @@
         <v>542238</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>61</v>
@@ -3063,13 +3081,13 @@
         <v>1116718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,10 +3158,10 @@
         <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -3152,13 +3170,13 @@
         <v>22870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -3167,13 +3185,13 @@
         <v>35335</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,10 +3209,10 @@
         <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>642</v>
@@ -3203,13 +3221,13 @@
         <v>638516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>1269</v>
@@ -3218,13 +3236,13 @@
         <v>1295148</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3310,13 @@
         <v>8188</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3307,13 +3325,13 @@
         <v>21626</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -3322,13 +3340,13 @@
         <v>29814</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,13 +3361,13 @@
         <v>637860</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>582</v>
@@ -3358,13 +3376,13 @@
         <v>627451</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M14" s="7">
         <v>1157</v>
@@ -3373,13 +3391,13 @@
         <v>1265311</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3465,13 @@
         <v>12267</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -3462,13 +3480,13 @@
         <v>19596</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -3477,13 +3495,13 @@
         <v>31862</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3516,13 @@
         <v>465651</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>416</v>
@@ -3513,13 +3531,13 @@
         <v>477253</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>830</v>
@@ -3528,13 +3546,13 @@
         <v>942905</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3620,13 @@
         <v>20812</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -3617,13 +3635,13 @@
         <v>34409</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -3632,13 +3650,13 @@
         <v>55221</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3671,13 @@
         <v>570516</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>627</v>
@@ -3668,13 +3686,13 @@
         <v>743522</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="M20" s="7">
         <v>1230</v>
@@ -3683,13 +3701,13 @@
         <v>1314038</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3775,13 @@
         <v>86185</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -3772,13 +3790,13 @@
         <v>141158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="M22" s="7">
         <v>216</v>
@@ -3787,13 +3805,13 @@
         <v>227343</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3826,13 @@
         <v>3308165</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="H23" s="7">
         <v>3206</v>
@@ -3823,13 +3841,13 @@
         <v>3403384</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="M23" s="7">
         <v>6353</v>
@@ -3838,13 +3856,13 @@
         <v>6711549</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,7 +3918,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3922,7 +3940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD91C1D-F5D6-45F0-9246-6F81E77F2106}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476E96CA-703B-4A42-8E08-77C8449F4279}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3939,7 +3957,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4046,13 +4064,13 @@
         <v>19949</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4061,13 +4079,13 @@
         <v>8223</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4076,13 +4094,13 @@
         <v>28172</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4115,13 @@
         <v>357730</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="H5" s="7">
         <v>202</v>
@@ -4112,13 +4130,13 @@
         <v>346734</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M5" s="7">
         <v>366</v>
@@ -4127,13 +4145,13 @@
         <v>704464</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4219,13 @@
         <v>29548</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4216,13 +4234,13 @@
         <v>34014</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>93</v>
+        <v>265</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -4231,13 +4249,13 @@
         <v>63562</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4270,13 @@
         <v>398848</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H8" s="7">
         <v>439</v>
@@ -4267,13 +4285,13 @@
         <v>464563</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>101</v>
+        <v>275</v>
       </c>
       <c r="M8" s="7">
         <v>721</v>
@@ -4282,13 +4300,13 @@
         <v>863411</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4374,13 @@
         <v>22076</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4371,13 +4389,13 @@
         <v>27814</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>168</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -4386,13 +4404,13 @@
         <v>49890</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4425,13 @@
         <v>533860</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="H11" s="7">
         <v>806</v>
@@ -4422,13 +4440,13 @@
         <v>554944</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1331</v>
@@ -4437,13 +4455,13 @@
         <v>1088804</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4529,13 @@
         <v>20925</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>63</v>
@@ -4526,13 +4544,13 @@
         <v>41565</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -4541,13 +4559,13 @@
         <v>62490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4580,13 @@
         <v>703065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>1076</v>
@@ -4577,13 +4595,13 @@
         <v>704812</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>1721</v>
@@ -4592,13 +4610,13 @@
         <v>1407877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4684,13 @@
         <v>16404</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>159</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -4681,13 +4699,13 @@
         <v>27626</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -4696,13 +4714,13 @@
         <v>44030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4735,13 @@
         <v>581676</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>165</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>953</v>
@@ -4732,13 +4750,13 @@
         <v>565092</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="M17" s="7">
         <v>1596</v>
@@ -4747,13 +4765,13 @@
         <v>1146768</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4839,13 @@
         <v>21091</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>94</v>
@@ -4836,13 +4854,13 @@
         <v>50311</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -4851,13 +4869,13 @@
         <v>71402</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>320</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4890,13 @@
         <v>675886</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>1611</v>
@@ -4887,13 +4905,13 @@
         <v>974668</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>2605</v>
@@ -4902,13 +4920,13 @@
         <v>1650554</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>327</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4994,13 @@
         <v>129993</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="H22" s="7">
         <v>267</v>
@@ -4991,13 +5009,13 @@
         <v>189553</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M22" s="7">
         <v>386</v>
@@ -5006,13 +5024,13 @@
         <v>319546</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>335</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5045,13 @@
         <v>3251065</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>338</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="H23" s="7">
         <v>5087</v>
@@ -5042,13 +5060,13 @@
         <v>3610813</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="M23" s="7">
         <v>8340</v>
@@ -5057,13 +5075,13 @@
         <v>6861878</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>344</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,7 +5137,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1409-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18830A00-EC40-4C2E-B577-97637FBDD8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B87DD3FB-4A34-4286-9DAA-63AD94D095F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{52B14493-83B0-49B4-ACA4-C0DC7F85B3F1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7A088C7A-9046-41D3-819E-BCAE460F8662}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="398">
   <si>
     <t>Población con diagnóstico de asma en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -127,7 +127,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>2,0%</t>
@@ -184,7 +184,7 @@
     <t>98,06%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,32%</t>
@@ -241,7 +241,7 @@
     <t>98,82%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>1,04%</t>
@@ -292,7 +292,7 @@
     <t>99,22%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,22%</t>
@@ -349,748 +349,889 @@
     <t>98,7%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,16%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>5,02%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>97,2%</t>
   </si>
   <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>96,15%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
   </si>
 </sst>
 </file>
@@ -1502,8 +1643,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A26D51F-8970-4159-B9A9-E9E4CD7A66DD}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6F1E7A-9160-42C4-90D6-190BE5A6FFB7}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2395,10 +2536,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>17702</v>
+        <v>10266</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>104</v>
@@ -2410,10 +2551,10 @@
         <v>106</v>
       </c>
       <c r="H19" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>20759</v>
+        <v>8869</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>107</v>
@@ -2425,19 +2566,19 @@
         <v>109</v>
       </c>
       <c r="M19" s="7">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N19" s="7">
-        <v>38461</v>
+        <v>19135</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,49 +2587,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>488</v>
+        <v>273</v>
       </c>
       <c r="D20" s="7">
-        <v>541935</v>
+        <v>299520</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
-        <v>673</v>
+        <v>335</v>
       </c>
       <c r="I20" s="7">
-        <v>721033</v>
+        <v>345127</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
-        <v>1161</v>
+        <v>608</v>
       </c>
       <c r="N20" s="7">
-        <v>1262968</v>
+        <v>644647</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,10 +2638,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -2512,10 +2653,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741792</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -2527,10 +2668,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1301429</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -2544,55 +2685,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>65421</v>
+        <v>7436</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>96180</v>
+        <v>11890</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="N22" s="7">
-        <v>161602</v>
+        <v>19326</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,49 +2742,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3146</v>
+        <v>215</v>
       </c>
       <c r="D23" s="7">
-        <v>3361358</v>
+        <v>242415</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
-        <v>3207</v>
+        <v>338</v>
       </c>
       <c r="I23" s="7">
-        <v>3457736</v>
+        <v>375906</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>6353</v>
+        <v>553</v>
       </c>
       <c r="N23" s="7">
-        <v>6819092</v>
+        <v>618321</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,63 +2793,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387796</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637647</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>63</v>
+      </c>
+      <c r="D25" s="7">
+        <v>65421</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="7">
+        <v>88</v>
+      </c>
+      <c r="I25" s="7">
+        <v>96180</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>151</v>
+      </c>
+      <c r="N25" s="7">
+        <v>161602</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3146</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3361358</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3207</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3457736</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6353</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6819092</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3553916</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6980694</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2721,8 +3018,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD254220-DCE2-4140-A310-8757C0EECF79}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F84934-4C02-4CC6-A659-E10D979BFFEE}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2738,7 +3035,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2845,13 +3142,13 @@
         <v>16439</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -2860,13 +3157,13 @@
         <v>21351</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -2875,13 +3172,13 @@
         <v>37789</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +3193,13 @@
         <v>403024</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>382</v>
@@ -2911,13 +3208,13 @@
         <v>374404</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>759</v>
@@ -2926,13 +3223,13 @@
         <v>777429</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3297,13 @@
         <v>16015</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -3015,13 +3312,13 @@
         <v>21306</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -3030,13 +3327,13 @@
         <v>37322</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3348,13 @@
         <v>574481</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>557</v>
@@ -3066,10 +3363,10 @@
         <v>542238</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>61</v>
@@ -3081,13 +3378,13 @@
         <v>1116718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,10 +3455,10 @@
         <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -3170,13 +3467,13 @@
         <v>22870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -3185,13 +3482,13 @@
         <v>35335</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,10 +3506,10 @@
         <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>642</v>
@@ -3221,10 +3518,10 @@
         <v>638516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>44</v>
@@ -3236,13 +3533,13 @@
         <v>1295148</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3607,13 @@
         <v>8188</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3325,13 +3622,13 @@
         <v>21626</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -3340,13 +3637,13 @@
         <v>29814</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3658,13 @@
         <v>637860</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>582</v>
@@ -3376,13 +3673,13 @@
         <v>627451</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>1157</v>
@@ -3391,13 +3688,13 @@
         <v>1265311</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3762,13 @@
         <v>12267</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -3480,13 +3777,13 @@
         <v>19596</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -3495,13 +3792,13 @@
         <v>31862</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3813,13 @@
         <v>465651</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>416</v>
@@ -3531,13 +3828,13 @@
         <v>477253</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>830</v>
@@ -3546,13 +3843,13 @@
         <v>942905</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,49 +3911,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>20812</v>
+        <v>5751</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I19" s="7">
-        <v>34409</v>
+        <v>14885</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="N19" s="7">
-        <v>55221</v>
+        <v>20636</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,49 +3962,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>603</v>
+        <v>319</v>
       </c>
       <c r="D20" s="7">
-        <v>570516</v>
+        <v>328579</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
-        <v>627</v>
+        <v>340</v>
       </c>
       <c r="I20" s="7">
-        <v>743522</v>
+        <v>362877</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="M20" s="7">
-        <v>1230</v>
+        <v>659</v>
       </c>
       <c r="N20" s="7">
-        <v>1314038</v>
+        <v>691456</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,10 +4013,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -3731,10 +4028,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -3746,10 +4043,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -3763,55 +4060,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>86185</v>
+        <v>15061</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="H22" s="7">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="I22" s="7">
-        <v>141158</v>
+        <v>19524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>248</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>249</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="M22" s="7">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="N22" s="7">
-        <v>227343</v>
+        <v>34585</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,49 +4117,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3147</v>
+        <v>284</v>
       </c>
       <c r="D23" s="7">
-        <v>3308165</v>
+        <v>241937</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="H23" s="7">
-        <v>3206</v>
+        <v>287</v>
       </c>
       <c r="I23" s="7">
-        <v>3403384</v>
+        <v>380645</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>256</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>101</v>
+        <v>258</v>
       </c>
       <c r="M23" s="7">
-        <v>6353</v>
+        <v>571</v>
       </c>
       <c r="N23" s="7">
-        <v>6711549</v>
+        <v>622582</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,63 +4168,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>84</v>
+      </c>
+      <c r="D25" s="7">
+        <v>86185</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H25" s="7">
+        <v>132</v>
+      </c>
+      <c r="I25" s="7">
+        <v>141158</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M25" s="7">
+        <v>216</v>
+      </c>
+      <c r="N25" s="7">
+        <v>227343</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3147</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3308165</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3206</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3403384</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6353</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6711549</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3940,8 +4393,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476E96CA-703B-4A42-8E08-77C8449F4279}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A930F5-9D6A-45A9-8777-EB2F821DFAEE}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3957,7 +4410,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4061,46 +4514,46 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>19949</v>
+        <v>23301</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>8223</v>
+        <v>6911</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>28172</v>
+        <v>30212</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,46 +4565,46 @@
         <v>164</v>
       </c>
       <c r="D5" s="7">
-        <v>357730</v>
+        <v>376686</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="H5" s="7">
         <v>202</v>
       </c>
       <c r="I5" s="7">
-        <v>346734</v>
+        <v>306289</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="M5" s="7">
         <v>366</v>
       </c>
       <c r="N5" s="7">
-        <v>704464</v>
+        <v>682975</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,7 +4616,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -4178,7 +4631,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -4193,7 +4646,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -4216,46 +4669,46 @@
         <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>29548</v>
+        <v>27782</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>34014</v>
+        <v>87116</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
       </c>
       <c r="N7" s="7">
-        <v>63562</v>
+        <v>114897</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,46 +4720,46 @@
         <v>282</v>
       </c>
       <c r="D8" s="7">
-        <v>398848</v>
+        <v>395765</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="H8" s="7">
         <v>439</v>
       </c>
       <c r="I8" s="7">
-        <v>464563</v>
+        <v>424388</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>721</v>
       </c>
       <c r="N8" s="7">
-        <v>863411</v>
+        <v>820154</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,7 +4771,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -4333,7 +4786,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -4348,7 +4801,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -4371,46 +4824,46 @@
         <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>22076</v>
+        <v>21551</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>27814</v>
+        <v>26016</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
       </c>
       <c r="N10" s="7">
-        <v>49890</v>
+        <v>47567</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>104</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,46 +4875,46 @@
         <v>525</v>
       </c>
       <c r="D11" s="7">
-        <v>533860</v>
+        <v>513466</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
         <v>806</v>
       </c>
       <c r="I11" s="7">
-        <v>554944</v>
+        <v>515783</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1331</v>
       </c>
       <c r="N11" s="7">
-        <v>1088804</v>
+        <v>1029249</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,7 +4926,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>555936</v>
+        <v>535017</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -4488,7 +4941,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582758</v>
+        <v>541799</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -4503,7 +4956,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1138694</v>
+        <v>1076816</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -4526,46 +4979,46 @@
         <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>20925</v>
+        <v>19487</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>63</v>
       </c>
       <c r="I13" s="7">
-        <v>41565</v>
+        <v>38615</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
       </c>
       <c r="N13" s="7">
-        <v>62490</v>
+        <v>58102</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,46 +5030,46 @@
         <v>645</v>
       </c>
       <c r="D14" s="7">
-        <v>703065</v>
+        <v>868299</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>1076</v>
       </c>
       <c r="I14" s="7">
-        <v>704812</v>
+        <v>673451</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="M14" s="7">
         <v>1721</v>
       </c>
       <c r="N14" s="7">
-        <v>1407877</v>
+        <v>1541750</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,7 +5081,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -4643,7 +5096,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746377</v>
+        <v>712066</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -4658,7 +5111,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1470367</v>
+        <v>1599852</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -4681,46 +5134,46 @@
         <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>16404</v>
+        <v>15304</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
       </c>
       <c r="I16" s="7">
-        <v>27626</v>
+        <v>25185</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
       </c>
       <c r="N16" s="7">
-        <v>44030</v>
+        <v>40489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,46 +5185,46 @@
         <v>643</v>
       </c>
       <c r="D17" s="7">
-        <v>581676</v>
+        <v>544000</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="H17" s="7">
         <v>953</v>
       </c>
       <c r="I17" s="7">
-        <v>565092</v>
+        <v>518911</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>175</v>
+        <v>346</v>
       </c>
       <c r="M17" s="7">
         <v>1596</v>
       </c>
       <c r="N17" s="7">
-        <v>1146768</v>
+        <v>1062911</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,7 +5236,7 @@
         <v>661</v>
       </c>
       <c r="D18" s="7">
-        <v>598080</v>
+        <v>559304</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -4798,7 +5251,7 @@
         <v>998</v>
       </c>
       <c r="I18" s="7">
-        <v>592718</v>
+        <v>544096</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -4813,7 +5266,7 @@
         <v>1659</v>
       </c>
       <c r="N18" s="7">
-        <v>1190798</v>
+        <v>1103400</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -4833,49 +5286,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>21091</v>
+        <v>11066</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>351</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="H19" s="7">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="I19" s="7">
-        <v>50311</v>
+        <v>18676</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="M19" s="7">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="N19" s="7">
-        <v>71402</v>
+        <v>29742</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,49 +5337,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>994</v>
+        <v>551</v>
       </c>
       <c r="D20" s="7">
-        <v>675886</v>
+        <v>356381</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>359</v>
       </c>
       <c r="H20" s="7">
-        <v>1611</v>
+        <v>787</v>
       </c>
       <c r="I20" s="7">
-        <v>974668</v>
+        <v>588586</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="M20" s="7">
-        <v>2605</v>
+        <v>1338</v>
       </c>
       <c r="N20" s="7">
-        <v>1650554</v>
+        <v>944967</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>364</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,10 +5388,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696977</v>
+        <v>367447</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -4950,10 +5403,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1024979</v>
+        <v>607262</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -4965,10 +5418,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1721956</v>
+        <v>974709</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -4982,55 +5435,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="D22" s="7">
-        <v>129993</v>
+        <v>8786</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>268</v>
+        <v>368</v>
       </c>
       <c r="H22" s="7">
-        <v>267</v>
+        <v>56</v>
       </c>
       <c r="I22" s="7">
-        <v>189553</v>
+        <v>26828</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>301</v>
+        <v>370</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="M22" s="7">
-        <v>386</v>
+        <v>71</v>
       </c>
       <c r="N22" s="7">
-        <v>319546</v>
+        <v>35614</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>54</v>
+        <v>373</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,49 +5492,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3253</v>
+        <v>443</v>
       </c>
       <c r="D23" s="7">
-        <v>3251065</v>
+        <v>273973</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>278</v>
+        <v>376</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="H23" s="7">
-        <v>5087</v>
+        <v>824</v>
       </c>
       <c r="I23" s="7">
-        <v>3610813</v>
+        <v>398604</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>309</v>
+        <v>380</v>
       </c>
       <c r="M23" s="7">
-        <v>8340</v>
+        <v>1267</v>
       </c>
       <c r="N23" s="7">
-        <v>6861878</v>
+        <v>672577</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>62</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,63 +5543,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425432</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708191</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>119</v>
+      </c>
+      <c r="D25" s="7">
+        <v>127276</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="7">
+        <v>267</v>
+      </c>
+      <c r="I25" s="7">
+        <v>229348</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="M25" s="7">
+        <v>386</v>
+      </c>
+      <c r="N25" s="7">
+        <v>356624</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3253</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3328571</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5087</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3426011</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8340</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6754583</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3372</v>
       </c>
-      <c r="D24" s="7">
-        <v>3381058</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3455847</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>5354</v>
       </c>
-      <c r="I24" s="7">
-        <v>3800366</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3655359</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>8726</v>
       </c>
-      <c r="N24" s="7">
-        <v>7181424</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="N27" s="7">
+        <v>7111207</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
